--- a/develop/unity/prj/TearDownTower/RowData/Table/towerparameter.xlsx
+++ b/develop/unity/prj/TearDownTower/RowData/Table/towerparameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IKDDocs2\Programs\git_marupeke_io\develop\unity\prj\TearDownTower\RowData\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C00C3A-DB5C-40CC-9D6A-5E7B4E7EC299}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F873E6-B012-452D-9C6E-A9B632A680D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1764" yWindow="1308" windowWidth="19932" windowHeight="10512" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Validate</t>
     <phoneticPr fontId="1"/>
@@ -545,6 +545,38 @@
     <rPh sb="7" eb="8">
       <t>ミジカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bgm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Game01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Game02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Game03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Game04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Game05</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -909,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436107AB-162A-4C3E-8371-F677628E362D}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -928,7 +960,7 @@
     <col min="12" max="12" width="18.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -944,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -952,7 +984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>24</v>
       </c>
@@ -983,8 +1015,11 @@
       <c r="M5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>43</v>
       </c>
@@ -1021,8 +1056,11 @@
       <c r="M6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -1056,8 +1094,11 @@
       <c r="M7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -1094,8 +1135,11 @@
       <c r="M8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -1132,8 +1176,11 @@
       <c r="M9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -1170,8 +1217,11 @@
       <c r="M10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -1208,8 +1258,11 @@
       <c r="M11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1249,8 +1302,11 @@
       <c r="M12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>49</v>
       </c>
@@ -1287,8 +1343,11 @@
       <c r="M13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>50</v>
       </c>
@@ -1325,8 +1384,11 @@
       <c r="M14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1366,8 +1428,11 @@
       <c r="M15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1407,8 +1472,11 @@
       <c r="M16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>53</v>
       </c>
@@ -1445,8 +1513,11 @@
       <c r="M17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>54</v>
       </c>
@@ -1483,8 +1554,11 @@
       <c r="M18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1524,8 +1598,11 @@
       <c r="M19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1565,8 +1642,11 @@
       <c r="M20">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1606,8 +1686,11 @@
       <c r="M21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1646,6 +1729,9 @@
       </c>
       <c r="M22">
         <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/develop/unity/prj/TearDownTower/RowData/Table/towerparameter.xlsx
+++ b/develop/unity/prj/TearDownTower/RowData/Table/towerparameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IKDDocs2\Programs\git_marupeke_io\develop\unity\prj\TearDownTower\RowData\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F873E6-B012-452D-9C6E-A9B632A680D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251CF663-09C8-4E6C-9213-B7BDA56F0E73}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1764" yWindow="1308" windowWidth="19932" windowHeight="10512" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
   </bookViews>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436107AB-162A-4C3E-8371-F677628E362D}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
